--- a/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>SOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,34 +769,40 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,23 +830,23 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +963,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,20 +1231,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1208,63 +1287,75 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,16 +1965,18 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -1824,16 +1997,22 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1931,11 +2122,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2014,24 +2217,30 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2083,11 +2298,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2297,14 +2548,14 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
@@ -2318,16 +2569,22 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,16 +2617,18 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
@@ -2388,16 +2649,22 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,10 +2672,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2417,25 +2684,31 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2461,10 +2734,10 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2472,46 +2745,58 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2531,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2548,22 +2833,28 @@
       <c r="N61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2572,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,19 +3159,25 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>4600</v>
-      </c>
-      <c r="E70" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3000</v>
       </c>
       <c r="G70" s="3">
         <v>3000</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P70" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3900</v>
       </c>
       <c r="I76" s="3">
         <v>-3800</v>
       </c>
       <c r="J76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,11 +3645,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3483,10 +3916,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,17 +3965,17 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3641,11 +4100,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4318,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -3866,13 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3936,15 +4439,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>SOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,16 +779,19 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -792,11 +799,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -804,8 +811,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,16 +826,19 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -836,11 +846,11 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -848,8 +858,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1002,19 +1022,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1158,43 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,20 +1271,20 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,13 +1303,16 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1293,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1302,16 +1342,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1362,46 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1503,46 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1550,46 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1832,46 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +1926,98 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,19 +2053,20 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2003,7 +2090,7 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2128,8 +2224,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2223,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,8 +2347,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2304,8 +2412,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2554,11 +2680,11 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
@@ -2575,7 +2701,7 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,7 +2762,7 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -2655,7 +2786,7 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,20 +2812,20 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
@@ -2699,16 +2833,19 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2740,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,13 +2903,13 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
@@ -2778,25 +2918,28 @@
         <v>1000</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2822,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2869,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,13 +3185,13 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
@@ -3042,25 +3200,28 @@
         <v>1000</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3177,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>4600</v>
-      </c>
-      <c r="G70" s="3">
-        <v>3000</v>
       </c>
       <c r="H70" s="3">
         <v>3000</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3436,46 @@
         <v>-7000</v>
       </c>
       <c r="E72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6500</v>
       </c>
       <c r="H72" s="3">
         <v>-6500</v>
       </c>
       <c r="I72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3441,40 +3627,43 @@
         <v>-600</v>
       </c>
       <c r="F76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3800</v>
       </c>
       <c r="I76" s="3">
         <v>-3800</v>
       </c>
       <c r="J76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3800</v>
       </c>
       <c r="L76" s="3">
         <v>-3800</v>
       </c>
       <c r="M76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3770,46 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3651,8 +3850,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4106,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3922,7 +4139,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,8 +4186,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3977,8 +4198,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,14 +4330,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4567,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -4345,22 +4591,22 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,11 +4673,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4445,15 +4697,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,43 +789,49 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -829,43 +842,49 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,44 +1039,50 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,43 +1217,49 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,26 +1344,26 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,19 +1379,25 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1336,25 +1415,31 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,46 +1447,52 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1606,52 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1659,52 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1977,52 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2083,110 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,16 +2236,16 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2093,16 +2266,22 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2227,11 +2418,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2328,16 +2531,22 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,11 +2559,11 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2415,11 +2630,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2683,14 +2934,14 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
@@ -2704,16 +2955,22 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,10 +3026,10 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
@@ -2789,24 +3050,30 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2815,10 +3082,10 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2827,25 +3094,31 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2880,10 +3153,10 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -2891,13 +3164,19 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -2906,40 +3185,46 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2968,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3018,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3482,19 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3188,40 +3503,46 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3348,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>4600</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3000</v>
       </c>
       <c r="J70" s="3">
         <v>3000</v>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S70" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-600</v>
       </c>
       <c r="G76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3900</v>
       </c>
       <c r="L76" s="3">
         <v>-3800</v>
       </c>
       <c r="M76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +4159,52 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4250,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4121,7 +4554,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4142,10 +4575,10 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4614,15 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4189,11 +4630,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4201,11 +4642,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4333,17 +4792,17 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,40 +5055,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4612,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4676,14 +5179,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4700,15 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>SOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,25 +799,28 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -821,11 +828,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -833,8 +840,8 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -848,25 +855,28 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -874,11 +884,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -886,8 +896,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,23 +1065,23 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1070,19 +1090,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,49 +1247,52 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,29 +1381,29 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +1434,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1421,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1430,69 +1470,75 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2242,13 +2329,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2272,7 +2359,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2424,8 +2520,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2537,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,8 +2670,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2636,8 +2744,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2940,11 +3066,11 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
@@ -2961,7 +3087,7 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3032,7 +3163,7 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -3056,7 +3187,7 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3064,19 +3195,22 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3088,20 +3222,20 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
@@ -3109,16 +3243,19 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3296,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3170,16 +3307,19 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -3191,13 +3331,13 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
@@ -3206,25 +3346,28 @@
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
       </c>
       <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3259,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3315,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,16 +3643,19 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -3509,13 +3667,13 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -3524,25 +3682,28 @@
         <v>1000</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3689,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>4600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3000</v>
       </c>
       <c r="K70" s="3">
         <v>3000</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7000</v>
       </c>
       <c r="G72" s="3">
         <v>-7000</v>
       </c>
       <c r="H72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6500</v>
       </c>
       <c r="K72" s="3">
         <v>-6500</v>
       </c>
       <c r="L72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,19 +4169,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -4007,40 +4193,43 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3800</v>
       </c>
       <c r="L76" s="3">
         <v>-3800</v>
       </c>
       <c r="M76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3800</v>
       </c>
       <c r="O76" s="3">
         <v>-3800</v>
       </c>
       <c r="P76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,8 +4455,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4581,7 +4798,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,16 +4836,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4798,14 +5028,14 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,28 +5304,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5091,22 +5337,22 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,13 +5416,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5185,11 +5437,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>
